--- a/outputs-HGR-r202/test-f__Acidaminococcaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Acidaminococcaceae_split_pruned.xlsx
@@ -14,38 +14,113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>Row</t>
   </si>
   <si>
+    <t>even_MAG-GUT10270.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT10398.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT10625.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT11036.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT11210.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT11332.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT11435.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT13045.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT14741.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT15742.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT1677.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT17255.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT17473.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT17515.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT20287.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT20540.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT20603.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT20639.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT2203.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT23387.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT24052.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT25048.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT25340.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT25650.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT2865.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT29189.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT29214.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT29221.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT29476.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT29878.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT31785.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT32691.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT33530.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT33657.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT34206.fa</t>
   </si>
   <si>
@@ -61,9 +136,30 @@
     <t>even_MAG-GUT35231.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT37976.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43152.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43233.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT43248.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT43329.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43835.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT45903.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT47875.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT51748.fa</t>
   </si>
   <si>
@@ -73,37 +169,355 @@
     <t>even_MAG-GUT51926.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT51928.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT5341.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT56559.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT56604.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT5676.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT57066.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57190.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57346.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57398.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57498.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57542.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57592.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57771.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57988.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT58133.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT58310.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT58672.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT59502.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT59576.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT5959.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT59626.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60077.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60123.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60157.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60320.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60370.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60466.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60605.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60882.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60999.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61376.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61623.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61658.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT61708.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT61749.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT61937.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT62054.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT62117.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT62393.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT62444.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT62509.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT62666.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT6679.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT69771.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7031.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7040.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT72119.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT72127.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT74329.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT74380.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT75402.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT75430.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT75522.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT79350.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT80385.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT80453.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80718.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT80771.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80816.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT81679.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT81926.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT81946.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT81987.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82039.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82105.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82160.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82436.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82468.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82509.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82562.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82635.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82654.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82703.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82738.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82744.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT84598.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT84613.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT85104.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT85904.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT85919.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT86870.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT87479.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT87575.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT87833.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT88081.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT88255.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT88680.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT88995.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89180.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89206.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89239.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89279.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89290.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89315.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89344.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89353.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89416.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89571.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89719.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89868.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89896.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90087.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90109.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90165.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90191.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90290.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90323.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90479.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90502.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90506.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90686.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90699.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90976.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91042.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91118.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91137.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT9659.fa</t>
   </si>
   <si>
     <t>1-g__Acidaminococcus</t>
@@ -166,7 +580,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F168"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -182,19 +596,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
@@ -202,19 +616,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.022068182675134853</v>
+        <v>0.99991674635103622</v>
       </c>
       <c r="C2">
-        <v>2.2198431999944386e-14</v>
+        <v>4.6933661232415171e-14</v>
       </c>
       <c r="D2">
-        <v>2.5991949570765713e-12</v>
+        <v>7.3436978995315824e-05</v>
       </c>
       <c r="E2">
-        <v>0.97793181732224366</v>
+        <v>9.8166699216061605e-06</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -222,16 +636,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9994843782092484</v>
+        <v>0.99981494180246455</v>
       </c>
       <c r="C3">
-        <v>5.6332908538394209e-14</v>
+        <v>5.9438695846758914e-14</v>
       </c>
       <c r="D3">
-        <v>6.6542694263603801e-05</v>
+        <v>0.00016242825430798518</v>
       </c>
       <c r="E3">
-        <v>0.00044907909643176087</v>
+        <v>2.262994316812436e-05</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -242,16 +656,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.99988688011898752</v>
+        <v>0.99814070297808621</v>
       </c>
       <c r="C4">
-        <v>2.2209622567967561e-14</v>
+        <v>2.8823118286817566e-11</v>
       </c>
       <c r="D4">
-        <v>3.6492293043142317e-08</v>
+        <v>3.1948157039498701e-05</v>
       </c>
       <c r="E4">
-        <v>0.00011308338869721378</v>
+        <v>0.0018273488360513715</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -262,19 +676,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.99998969499766133</v>
+        <v>0.022068182675134853</v>
       </c>
       <c r="C5">
-        <v>2.2204443177174793e-14</v>
+        <v>2.2198431999944386e-14</v>
       </c>
       <c r="D5">
-        <v>1.5027312373639087e-08</v>
+        <v>2.5991949570765713e-12</v>
       </c>
       <c r="E5">
-        <v>1.028997500416505e-05</v>
+        <v>0.97793181732224366</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -282,19 +696,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.11028191357176655</v>
+        <v>0.9994245946213911</v>
       </c>
       <c r="C6">
-        <v>2.2199971105156353e-14</v>
+        <v>2.2201499237335967e-14</v>
       </c>
       <c r="D6">
-        <v>2.4758940385789741e-11</v>
+        <v>0.00028863109730425327</v>
       </c>
       <c r="E6">
-        <v>0.8897180864034524</v>
+        <v>0.00028677428128253036</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -302,19 +716,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.0031288295086524813</v>
+        <v>0.999889497932127</v>
       </c>
       <c r="C7">
-        <v>9.737170853181362e-13</v>
+        <v>5.142689536263191e-14</v>
       </c>
       <c r="D7">
-        <v>1.3010834036820412e-11</v>
+        <v>8.1857578384416464e-05</v>
       </c>
       <c r="E7">
-        <v>0.99687117047736307</v>
+        <v>2.8644489437100188e-05</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -322,16 +736,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.99998812739201648</v>
+        <v>0.99994007786820605</v>
       </c>
       <c r="C8">
-        <v>2.2207482028950687e-14</v>
+        <v>2.220423065283195e-14</v>
       </c>
       <c r="D8">
-        <v>1.3256032771517926e-11</v>
+        <v>2.1421212395702254e-07</v>
       </c>
       <c r="E8">
-        <v>1.187259470533004e-05</v>
+        <v>5.9707919647919432e-05</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -342,16 +756,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.94607861898493029</v>
+        <v>0.99974085745640384</v>
       </c>
       <c r="C9">
-        <v>1.1565072114359224e-09</v>
+        <v>3.5790280259505689e-14</v>
       </c>
       <c r="D9">
-        <v>0.00066605639784488913</v>
+        <v>8.5340740822578165e-07</v>
       </c>
       <c r="E9">
-        <v>0.053255323460717631</v>
+        <v>0.00025828913615226452</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -362,16 +776,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.85955331968029924</v>
+        <v>0.99974085745640384</v>
       </c>
       <c r="C10">
-        <v>2.8908698717191303e-10</v>
+        <v>3.5790280259505689e-14</v>
       </c>
       <c r="D10">
-        <v>0.00027974566022078887</v>
+        <v>8.5340740822578165e-07</v>
       </c>
       <c r="E10">
-        <v>0.14016693437039313</v>
+        <v>0.00025828913615226452</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -382,19 +796,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.23260954256501e-09</v>
+        <v>0.99996884648984874</v>
       </c>
       <c r="C11">
-        <v>5.5494663192537832e-12</v>
+        <v>2.2204333592393212e-14</v>
       </c>
       <c r="D11">
-        <v>2.1381375920512051e-11</v>
+        <v>2.5510520764637247e-07</v>
       </c>
       <c r="E11">
-        <v>0.99999999774045967</v>
+        <v>3.0898404921419055e-05</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -402,19 +816,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.8251145669937731e-10</v>
+        <v>0.99992890521197775</v>
       </c>
       <c r="C12">
-        <v>4.9681758577073478e-11</v>
+        <v>2.3766247327534047e-13</v>
       </c>
       <c r="D12">
-        <v>1.4520438366891718e-11</v>
+        <v>5.9026840728547995e-06</v>
       </c>
       <c r="E12">
-        <v>0.99999999945328633</v>
+        <v>6.5192103711631983e-05</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -422,19 +836,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>9.1816145328602181e-11</v>
+        <v>0.99914333541542089</v>
       </c>
       <c r="C13">
-        <v>1.6835001734865996e-10</v>
+        <v>2.5326969943528153e-14</v>
       </c>
       <c r="D13">
-        <v>6.5435543290484222e-12</v>
+        <v>0.00075983864623958169</v>
       </c>
       <c r="E13">
-        <v>0.99999999973329035</v>
+        <v>9.6825938314191938e-05</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -442,19 +856,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4.8251145669937731e-10</v>
+        <v>0.9994843782092484</v>
       </c>
       <c r="C14">
-        <v>4.9681758577073478e-11</v>
+        <v>5.6332908538394209e-14</v>
       </c>
       <c r="D14">
-        <v>1.4520438366891718e-11</v>
+        <v>6.6542694263603801e-05</v>
       </c>
       <c r="E14">
-        <v>0.99999999945328633</v>
+        <v>0.00044907909643176087</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -462,19 +876,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.8519639456720464e-10</v>
+        <v>0.99988226174130379</v>
       </c>
       <c r="C15">
-        <v>3.5429932228731882e-10</v>
+        <v>9.0291384368990032e-14</v>
       </c>
       <c r="D15">
-        <v>9.3752754341220287e-11</v>
+        <v>1.7817504736167974e-05</v>
       </c>
       <c r="E15">
-        <v>0.99999999936675155</v>
+        <v>9.9920753869895863e-05</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -482,16 +896,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.99075976045721326</v>
+        <v>0.99921044800910641</v>
       </c>
       <c r="C16">
-        <v>2.2197870201770344e-14</v>
+        <v>8.7627674250379419e-14</v>
       </c>
       <c r="D16">
-        <v>1.2683855074221918e-05</v>
+        <v>2.4348896526577008e-05</v>
       </c>
       <c r="E16">
-        <v>0.0092275556876903406</v>
+        <v>0.00076520309427931352</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -502,19 +916,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.044444887437912757</v>
+        <v>0.99995670814252935</v>
       </c>
       <c r="C17">
-        <v>2.2198776149236639e-14</v>
+        <v>2.2204293023480293e-14</v>
       </c>
       <c r="D17">
-        <v>1.7080591329099073e-11</v>
+        <v>1.823476313096593e-06</v>
       </c>
       <c r="E17">
-        <v>0.95555511254498449</v>
+        <v>4.146838113541887e-05</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -522,19 +936,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.017744668696501334</v>
+        <v>0.99928913031711253</v>
       </c>
       <c r="C18">
-        <v>8.3936931263707527e-14</v>
+        <v>2.2200903116645083e-14</v>
       </c>
       <c r="D18">
-        <v>3.3320068668450141e-10</v>
+        <v>7.0003564787136111e-07</v>
       </c>
       <c r="E18">
-        <v>0.982255330970214</v>
+        <v>0.00071016964721756326</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -542,16 +956,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.99694771553892425</v>
+        <v>0.99988688011898752</v>
       </c>
       <c r="C19">
-        <v>5.4609519743717476e-13</v>
+        <v>2.2209622567967561e-14</v>
       </c>
       <c r="D19">
-        <v>0.0011895936625250995</v>
+        <v>3.6492293043142317e-08</v>
       </c>
       <c r="E19">
-        <v>0.0018626907980043704</v>
+        <v>0.00011308338869721378</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -562,16 +976,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.99926802703935202</v>
+        <v>0.99989473018321129</v>
       </c>
       <c r="C20">
-        <v>8.7264236271600259e-14</v>
+        <v>4.962034783688248e-14</v>
       </c>
       <c r="D20">
-        <v>1.4149147970134087e-06</v>
+        <v>8.6254670733727814e-05</v>
       </c>
       <c r="E20">
-        <v>0.00073055804576366041</v>
+        <v>1.9015146005234148e-05</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -582,19 +996,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.018118374768749695</v>
+        <v>0.99998969499766133</v>
       </c>
       <c r="C21">
-        <v>7.6106167529044763e-14</v>
+        <v>2.2204443177174793e-14</v>
       </c>
       <c r="D21">
-        <v>1.0961198844662627e-09</v>
+        <v>1.5027312373639087e-08</v>
       </c>
       <c r="E21">
-        <v>0.98188162413505431</v>
+        <v>1.028997500416505e-05</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -602,19 +1016,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.041114353873850311</v>
+        <v>0.99968047728224085</v>
       </c>
       <c r="C22">
-        <v>2.2198709618375671e-14</v>
+        <v>5.7133252340481676e-12</v>
       </c>
       <c r="D22">
-        <v>4.9045957783987643e-10</v>
+        <v>0.00020927095778997408</v>
       </c>
       <c r="E22">
-        <v>0.95888564563566792</v>
+        <v>0.0001102517542558169</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -622,19 +1036,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.040850446213849596</v>
+        <v>0.99986274349047921</v>
       </c>
       <c r="C23">
-        <v>2.2198607921475287e-14</v>
+        <v>2.2203869970970603e-14</v>
       </c>
       <c r="D23">
-        <v>4.9747533313031707e-10</v>
+        <v>6.6946623246279531e-07</v>
       </c>
       <c r="E23">
-        <v>0.95914955328865292</v>
+        <v>0.00013658704326620336</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -642,16 +1056,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.99901388447812067</v>
+        <v>0.99979864962568377</v>
       </c>
       <c r="C24">
-        <v>2.3631509288018568e-12</v>
+        <v>8.4748263588812745e-13</v>
       </c>
       <c r="D24">
-        <v>1.5395247363692352e-05</v>
+        <v>0.00011529188590876966</v>
       </c>
       <c r="E24">
-        <v>0.00097072027215244999</v>
+        <v>8.6058487559935047e-05</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -662,19 +1076,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.99864081426761264</v>
+        <v>0.11028191357176655</v>
       </c>
       <c r="C25">
-        <v>6.7547047632429909e-14</v>
+        <v>2.2199971105156353e-14</v>
       </c>
       <c r="D25">
-        <v>2.5137259377626683e-05</v>
+        <v>2.4758940385789741e-11</v>
       </c>
       <c r="E25">
-        <v>0.0013340484729421809</v>
+        <v>0.8897180864034524</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -682,19 +1096,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.99812455735662897</v>
+        <v>0.0031288295086524813</v>
       </c>
       <c r="C26">
-        <v>1.3765633430479506e-13</v>
+        <v>9.737170853181362e-13</v>
       </c>
       <c r="D26">
-        <v>1.8933375846659679e-05</v>
+        <v>1.3010834036820412e-11</v>
       </c>
       <c r="E26">
-        <v>0.0018565092673867888</v>
+        <v>0.99687117047736307</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -702,16 +1116,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.99801064780410864</v>
+        <v>0.99974845285803471</v>
       </c>
       <c r="C27">
-        <v>3.8219480418766344e-12</v>
+        <v>1.1180688465201045e-13</v>
       </c>
       <c r="D27">
-        <v>0.0001645216705369936</v>
+        <v>1.1627731853278826e-05</v>
       </c>
       <c r="E27">
-        <v>0.0018248305215323745</v>
+        <v>0.00023991941000012628</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -722,19 +1136,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.11827629661547909</v>
+        <v>0.99967411815713347</v>
       </c>
       <c r="C28">
-        <v>2.22000484322412e-14</v>
+        <v>1.8257201973031114e-13</v>
       </c>
       <c r="D28">
-        <v>1.6258091484090115e-11</v>
+        <v>2.3579500193863628e-06</v>
       </c>
       <c r="E28">
-        <v>0.88172370336824057</v>
+        <v>0.00032352389266453266</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -742,19 +1156,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.0021158199348651425</v>
+        <v>0.99975334930750126</v>
       </c>
       <c r="C29">
-        <v>7.0126525609739248e-12</v>
+        <v>1.1508203266967151e-13</v>
       </c>
       <c r="D29">
-        <v>8.1443700898267388e-10</v>
+        <v>1.1619232611456325e-05</v>
       </c>
       <c r="E29">
-        <v>0.99788417924368511</v>
+        <v>0.00023503145977208953</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -762,18 +1176,2778 @@
         <v>29</v>
       </c>
       <c r="B30">
+        <v>0.99944636367891848</v>
+      </c>
+      <c r="C30">
+        <v>6.1641720413796252e-14</v>
+      </c>
+      <c r="D30">
+        <v>0.00013413346386039528</v>
+      </c>
+      <c r="E30">
+        <v>0.00041950285715947538</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.99998812739201648</v>
+      </c>
+      <c r="C31">
+        <v>2.2207482028950687e-14</v>
+      </c>
+      <c r="D31">
+        <v>1.3256032771517926e-11</v>
+      </c>
+      <c r="E31">
+        <v>1.187259470533004e-05</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.94607861898493029</v>
+      </c>
+      <c r="C32">
+        <v>1.1565072114359224e-09</v>
+      </c>
+      <c r="D32">
+        <v>0.00066605639784488913</v>
+      </c>
+      <c r="E32">
+        <v>0.053255323460717631</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0.99997708339859892</v>
+      </c>
+      <c r="C33">
+        <v>1.0237822125361867e-13</v>
+      </c>
+      <c r="D33">
+        <v>5.204919416701788e-06</v>
+      </c>
+      <c r="E33">
+        <v>1.7711681881922492e-05</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0.85955331968029924</v>
+      </c>
+      <c r="C34">
+        <v>2.8908698717191303e-10</v>
+      </c>
+      <c r="D34">
+        <v>0.00027974566022078887</v>
+      </c>
+      <c r="E34">
+        <v>0.14016693437039313</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0.99973804907114272</v>
+      </c>
+      <c r="C35">
+        <v>2.220342478905791e-14</v>
+      </c>
+      <c r="D35">
+        <v>1.9039568857064817e-06</v>
+      </c>
+      <c r="E35">
+        <v>0.00026004697194951279</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2.23260954256501e-09</v>
+      </c>
+      <c r="C36">
+        <v>5.5494663192537832e-12</v>
+      </c>
+      <c r="D36">
+        <v>2.1381375920512051e-11</v>
+      </c>
+      <c r="E36">
+        <v>0.99999999774045967</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>4.8251145669937731e-10</v>
+      </c>
+      <c r="C37">
+        <v>4.9681758577073478e-11</v>
+      </c>
+      <c r="D37">
+        <v>1.4520438366891718e-11</v>
+      </c>
+      <c r="E37">
+        <v>0.99999999945328633</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>9.1816145328602181e-11</v>
+      </c>
+      <c r="C38">
+        <v>1.6835001734865996e-10</v>
+      </c>
+      <c r="D38">
+        <v>6.5435543290484222e-12</v>
+      </c>
+      <c r="E38">
+        <v>0.99999999973329035</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4.8251145669937731e-10</v>
+      </c>
+      <c r="C39">
+        <v>4.9681758577073478e-11</v>
+      </c>
+      <c r="D39">
+        <v>1.4520438366891718e-11</v>
+      </c>
+      <c r="E39">
+        <v>0.99999999945328633</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1.8519639456720464e-10</v>
+      </c>
+      <c r="C40">
+        <v>3.5429932228731882e-10</v>
+      </c>
+      <c r="D40">
+        <v>9.3752754341220287e-11</v>
+      </c>
+      <c r="E40">
+        <v>0.99999999936675155</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0.99991497677863828</v>
+      </c>
+      <c r="C41">
+        <v>9.3218563956478985e-14</v>
+      </c>
+      <c r="D41">
+        <v>5.8483530354642279e-05</v>
+      </c>
+      <c r="E41">
+        <v>2.653969091385405e-05</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0.99972514858927897</v>
+      </c>
+      <c r="C42">
+        <v>3.2010662227949962e-14</v>
+      </c>
+      <c r="D42">
+        <v>2.9183595961711101e-05</v>
+      </c>
+      <c r="E42">
+        <v>0.00024566781472721406</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0.99994072432267234</v>
+      </c>
+      <c r="C43">
+        <v>2.8573371496074376e-14</v>
+      </c>
+      <c r="D43">
+        <v>4.686459154154463e-06</v>
+      </c>
+      <c r="E43">
+        <v>5.458921814487051e-05</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0.99075976045721326</v>
+      </c>
+      <c r="C44">
+        <v>2.2197870201770344e-14</v>
+      </c>
+      <c r="D44">
+        <v>1.2683855074221918e-05</v>
+      </c>
+      <c r="E44">
+        <v>0.0092275556876903406</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0.99837498489354171</v>
+      </c>
+      <c r="C45">
+        <v>8.8526050802119303e-12</v>
+      </c>
+      <c r="D45">
+        <v>0.00026748922670554798</v>
+      </c>
+      <c r="E45">
+        <v>0.0013575258709001533</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0.99925764052370525</v>
+      </c>
+      <c r="C46">
+        <v>1.0030726872487358e-12</v>
+      </c>
+      <c r="D46">
+        <v>0.00058478634009863535</v>
+      </c>
+      <c r="E46">
+        <v>0.00015757313519293407</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0.99928009238090854</v>
+      </c>
+      <c r="C47">
+        <v>2.2201770729463626e-14</v>
+      </c>
+      <c r="D47">
+        <v>3.7198200129567736e-05</v>
+      </c>
+      <c r="E47">
+        <v>0.00068270941893952715</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0.99947245551057606</v>
+      </c>
+      <c r="C48">
+        <v>2.0659674739473041e-12</v>
+      </c>
+      <c r="D48">
+        <v>0.00046767932821339335</v>
+      </c>
+      <c r="E48">
+        <v>5.9865159144595468e-05</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0.044444887437912757</v>
+      </c>
+      <c r="C49">
+        <v>2.2198776149236639e-14</v>
+      </c>
+      <c r="D49">
+        <v>1.7080591329099073e-11</v>
+      </c>
+      <c r="E49">
+        <v>0.95555511254498449</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0.017744668696501334</v>
+      </c>
+      <c r="C50">
+        <v>8.3936931263707527e-14</v>
+      </c>
+      <c r="D50">
+        <v>3.3320068668450141e-10</v>
+      </c>
+      <c r="E50">
+        <v>0.982255330970214</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0.99694771553892425</v>
+      </c>
+      <c r="C51">
+        <v>5.4609519743717476e-13</v>
+      </c>
+      <c r="D51">
+        <v>0.0011895936625250995</v>
+      </c>
+      <c r="E51">
+        <v>0.0018626907980043704</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0.99881955048497373</v>
+      </c>
+      <c r="C52">
+        <v>6.37945519494544e-14</v>
+      </c>
+      <c r="D52">
+        <v>8.0055380145480055e-05</v>
+      </c>
+      <c r="E52">
+        <v>0.0011003941348169204</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0.99973120661976567</v>
+      </c>
+      <c r="C53">
+        <v>1.0344810478542859e-12</v>
+      </c>
+      <c r="D53">
+        <v>1.1253649521129725e-05</v>
+      </c>
+      <c r="E53">
+        <v>0.00025753972967890333</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0.99994462018074515</v>
+      </c>
+      <c r="C54">
+        <v>2.2204422519651618e-14</v>
+      </c>
+      <c r="D54">
+        <v>1.1760089657446695e-05</v>
+      </c>
+      <c r="E54">
+        <v>4.361972957531063e-05</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>0.99984695617430086</v>
+      </c>
+      <c r="C55">
+        <v>3.2717726708185651e-14</v>
+      </c>
+      <c r="D55">
+        <v>2.4348013050759445e-07</v>
+      </c>
+      <c r="E55">
+        <v>0.00015280034553599627</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0.99926802703935202</v>
+      </c>
+      <c r="C56">
+        <v>8.7264236271600259e-14</v>
+      </c>
+      <c r="D56">
+        <v>1.4149147970134087e-06</v>
+      </c>
+      <c r="E56">
+        <v>0.00073055804576366041</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0.99993664138998484</v>
+      </c>
+      <c r="C57">
+        <v>2.220415905654663e-14</v>
+      </c>
+      <c r="D57">
+        <v>4.5910711727975478e-05</v>
+      </c>
+      <c r="E57">
+        <v>1.7447898264983955e-05</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>0.99999098787100182</v>
+      </c>
+      <c r="C58">
+        <v>2.2204588091266515e-14</v>
+      </c>
+      <c r="D58">
+        <v>1.9709601101039794e-06</v>
+      </c>
+      <c r="E58">
+        <v>7.0411688658294626e-06</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>0.99984695617430086</v>
+      </c>
+      <c r="C59">
+        <v>3.2717726708185651e-14</v>
+      </c>
+      <c r="D59">
+        <v>2.4348013050759445e-07</v>
+      </c>
+      <c r="E59">
+        <v>0.00015280034553599627</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>0.99993883266468031</v>
+      </c>
+      <c r="C60">
+        <v>2.2204208435436985e-14</v>
+      </c>
+      <c r="D60">
+        <v>8.8141712468155398e-06</v>
+      </c>
+      <c r="E60">
+        <v>5.2353164050631124e-05</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0.99990944450873909</v>
+      </c>
+      <c r="C61">
+        <v>2.2204110211884203e-14</v>
+      </c>
+      <c r="D61">
+        <v>1.9562910313351561e-06</v>
+      </c>
+      <c r="E61">
+        <v>8.8599200207270802e-05</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>0.99979679633017271</v>
+      </c>
+      <c r="C62">
+        <v>2.220350008089898e-14</v>
+      </c>
+      <c r="D62">
+        <v>1.5323489592333247e-05</v>
+      </c>
+      <c r="E62">
+        <v>0.00018788018021281922</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0.99991088632185421</v>
+      </c>
+      <c r="C63">
+        <v>2.2204089632965603e-14</v>
+      </c>
+      <c r="D63">
+        <v>1.3522953586475885e-06</v>
+      </c>
+      <c r="E63">
+        <v>8.7761382765040111e-05</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0.99992564732838429</v>
+      </c>
+      <c r="C64">
+        <v>4.2839765452028912e-14</v>
+      </c>
+      <c r="D64">
+        <v>4.6589889412312783e-06</v>
+      </c>
+      <c r="E64">
+        <v>6.9693682631744301e-05</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0.99985565976759216</v>
+      </c>
+      <c r="C65">
+        <v>3.4539267107468037e-13</v>
+      </c>
+      <c r="D65">
+        <v>6.8150109539906722e-06</v>
+      </c>
+      <c r="E65">
+        <v>0.00013752522110834723</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0.99921370547528898</v>
+      </c>
+      <c r="C66">
+        <v>2.8641686334196581e-12</v>
+      </c>
+      <c r="D66">
+        <v>3.8064476997807233e-05</v>
+      </c>
+      <c r="E66">
+        <v>0.00074823004484898478</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0.99976427792133282</v>
+      </c>
+      <c r="C67">
+        <v>4.9859773412250554e-14</v>
+      </c>
+      <c r="D67">
+        <v>4.9306053380932221e-05</v>
+      </c>
+      <c r="E67">
+        <v>0.00018641602523628364</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>0.99894870105657674</v>
+      </c>
+      <c r="C68">
+        <v>2.2198778705741066e-14</v>
+      </c>
+      <c r="D68">
+        <v>0.00092646191415579333</v>
+      </c>
+      <c r="E68">
+        <v>0.00012483702924530579</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>0.9999334256608452</v>
+      </c>
+      <c r="C69">
+        <v>2.2204154725125576e-14</v>
+      </c>
+      <c r="D69">
+        <v>1.2998091404408999e-06</v>
+      </c>
+      <c r="E69">
+        <v>6.5274529992096636e-05</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>0.99974178407755188</v>
+      </c>
+      <c r="C70">
+        <v>5.4307129596993099e-14</v>
+      </c>
+      <c r="D70">
+        <v>3.2180033375642265e-06</v>
+      </c>
+      <c r="E70">
+        <v>0.00025499791905632656</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>0.99967869791348218</v>
+      </c>
+      <c r="C71">
+        <v>2.2202846436418387e-14</v>
+      </c>
+      <c r="D71">
+        <v>0.00014236118357046043</v>
+      </c>
+      <c r="E71">
+        <v>0.00017894090292510883</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>0.99994462018074515</v>
+      </c>
+      <c r="C72">
+        <v>2.2204422519651618e-14</v>
+      </c>
+      <c r="D72">
+        <v>1.1760089657446695e-05</v>
+      </c>
+      <c r="E72">
+        <v>4.361972957531063e-05</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>0.99992259833898667</v>
+      </c>
+      <c r="C73">
+        <v>2.22041332690858e-14</v>
+      </c>
+      <c r="D73">
+        <v>6.3881962154667946e-07</v>
+      </c>
+      <c r="E73">
+        <v>7.6762841369493263e-05</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>0.99394463917430564</v>
+      </c>
+      <c r="C74">
+        <v>1.2142328290613663e-13</v>
+      </c>
+      <c r="D74">
+        <v>3.5325426897815719e-06</v>
+      </c>
+      <c r="E74">
+        <v>0.0060518282828830785</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>0.99982589744829631</v>
+      </c>
+      <c r="C75">
+        <v>2.7072265327666363e-14</v>
+      </c>
+      <c r="D75">
+        <v>8.6114429378207066e-07</v>
+      </c>
+      <c r="E75">
+        <v>0.00017324140738290262</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0.99864615131477741</v>
+      </c>
+      <c r="C76">
+        <v>6.3743242664949199e-12</v>
+      </c>
+      <c r="D76">
+        <v>0.0001843809747402238</v>
+      </c>
+      <c r="E76">
+        <v>0.0011694677041079497</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0.99910184913115407</v>
+      </c>
+      <c r="C77">
+        <v>1.7892679355671281e-13</v>
+      </c>
+      <c r="D77">
+        <v>0.00016904635292938459</v>
+      </c>
+      <c r="E77">
+        <v>0.00072910451573759462</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>0.99597304886514393</v>
+      </c>
+      <c r="C78">
+        <v>2.3051842310476287e-13</v>
+      </c>
+      <c r="D78">
+        <v>0.00039443480904204471</v>
+      </c>
+      <c r="E78">
+        <v>0.003632516325583451</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0.99902236586242565</v>
+      </c>
+      <c r="C79">
+        <v>2.9908428810847987e-13</v>
+      </c>
+      <c r="D79">
+        <v>0.00096714013294118509</v>
+      </c>
+      <c r="E79">
+        <v>1.0494004333911181e-05</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>0.99984472029460381</v>
+      </c>
+      <c r="C80">
+        <v>6.0915145655049973e-13</v>
+      </c>
+      <c r="D80">
+        <v>6.1952880098723099e-05</v>
+      </c>
+      <c r="E80">
+        <v>9.3326824688394364e-05</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0.99968168026146897</v>
+      </c>
+      <c r="C81">
+        <v>1.6232923008519456e-13</v>
+      </c>
+      <c r="D81">
+        <v>6.5237999624240041e-06</v>
+      </c>
+      <c r="E81">
+        <v>0.00031179593840644372</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>0.99966372445437723</v>
+      </c>
+      <c r="C82">
+        <v>4.5745538966318304e-13</v>
+      </c>
+      <c r="D82">
+        <v>0.00020265422900728506</v>
+      </c>
+      <c r="E82">
+        <v>0.00013362131615805384</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>0.99996466712934262</v>
+      </c>
+      <c r="C83">
+        <v>4.6620958218208663e-14</v>
+      </c>
+      <c r="D83">
+        <v>1.4542971142402514e-05</v>
+      </c>
+      <c r="E83">
+        <v>2.078989946842636e-05</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>0.99992252900674028</v>
+      </c>
+      <c r="C84">
+        <v>2.2204148394258175e-14</v>
+      </c>
+      <c r="D84">
+        <v>8.41216653859872e-07</v>
+      </c>
+      <c r="E84">
+        <v>7.6629776583604878e-05</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>0.018118374768749695</v>
+      </c>
+      <c r="C85">
+        <v>7.6106167529044763e-14</v>
+      </c>
+      <c r="D85">
+        <v>1.0961198844662627e-09</v>
+      </c>
+      <c r="E85">
+        <v>0.98188162413505431</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>0.041114353873850311</v>
+      </c>
+      <c r="C86">
+        <v>2.2198709618375671e-14</v>
+      </c>
+      <c r="D86">
+        <v>4.9045957783987643e-10</v>
+      </c>
+      <c r="E86">
+        <v>0.95888564563566792</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>0.99950622741817041</v>
+      </c>
+      <c r="C87">
+        <v>6.3380756397753946e-13</v>
+      </c>
+      <c r="D87">
+        <v>0.0002279461482403113</v>
+      </c>
+      <c r="E87">
+        <v>0.00026582643295549756</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>0.99926390674485888</v>
+      </c>
+      <c r="C88">
+        <v>4.5022639028305308e-13</v>
+      </c>
+      <c r="D88">
+        <v>9.1204453824944505e-05</v>
+      </c>
+      <c r="E88">
+        <v>0.00064488880086585175</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>0.99987840712952158</v>
+      </c>
+      <c r="C89">
+        <v>2.220399089330349e-14</v>
+      </c>
+      <c r="D89">
+        <v>1.4118763152367193e-05</v>
+      </c>
+      <c r="E89">
+        <v>0.00010747410730379989</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>0.040850446213849596</v>
+      </c>
+      <c r="C90">
+        <v>2.2198607921475287e-14</v>
+      </c>
+      <c r="D90">
+        <v>4.9747533313031707e-10</v>
+      </c>
+      <c r="E90">
+        <v>0.95914955328865292</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>0.99990243613803009</v>
+      </c>
+      <c r="C91">
+        <v>4.2068003091140241e-14</v>
+      </c>
+      <c r="D91">
+        <v>1.2391186001853872e-06</v>
+      </c>
+      <c r="E91">
+        <v>9.6324743327601018e-05</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>0.99905893513319399</v>
+      </c>
+      <c r="C92">
+        <v>3.3590162997356168e-14</v>
+      </c>
+      <c r="D92">
+        <v>1.765149039071237e-05</v>
+      </c>
+      <c r="E92">
+        <v>0.00092341337638171409</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>0.99877529915294672</v>
+      </c>
+      <c r="C93">
+        <v>6.4628448814398807e-14</v>
+      </c>
+      <c r="D93">
+        <v>0.0011951002519706242</v>
+      </c>
+      <c r="E93">
+        <v>2.9600595018155703e-05</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>0.99976455431705202</v>
+      </c>
+      <c r="C94">
+        <v>5.4052245997145842e-13</v>
+      </c>
+      <c r="D94">
+        <v>0.00019381467045923145</v>
+      </c>
+      <c r="E94">
+        <v>4.1631011948205644e-05</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>0.99981700555693487</v>
+      </c>
+      <c r="C95">
+        <v>1.6072573607184965e-13</v>
+      </c>
+      <c r="D95">
+        <v>1.2969406763006901e-07</v>
+      </c>
+      <c r="E95">
+        <v>0.00018286474883685079</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>0.99957218888138943</v>
+      </c>
+      <c r="C96">
+        <v>2.2202381008239756e-14</v>
+      </c>
+      <c r="D96">
+        <v>1.2239198718879756e-07</v>
+      </c>
+      <c r="E96">
+        <v>0.00042768872660116673</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>0.99985158234665616</v>
+      </c>
+      <c r="C97">
+        <v>6.897985345189441e-12</v>
+      </c>
+      <c r="D97">
+        <v>2.0443631241988007e-06</v>
+      </c>
+      <c r="E97">
+        <v>0.00014637328332177738</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>0.99998743038835869</v>
+      </c>
+      <c r="C98">
+        <v>2.2204417493381548e-14</v>
+      </c>
+      <c r="D98">
+        <v>9.8533005149509687e-07</v>
+      </c>
+      <c r="E98">
+        <v>1.1584281567687969e-05</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>0.99952536689276983</v>
+      </c>
+      <c r="C99">
+        <v>2.220200246711318e-14</v>
+      </c>
+      <c r="D99">
+        <v>5.5602568668556303e-06</v>
+      </c>
+      <c r="E99">
+        <v>0.00046907285034119596</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>0.99952900109172027</v>
+      </c>
+      <c r="C100">
+        <v>5.7709083739491524e-13</v>
+      </c>
+      <c r="D100">
+        <v>0.00040043602255862825</v>
+      </c>
+      <c r="E100">
+        <v>7.0562885143982435e-05</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>0.9997540666750645</v>
+      </c>
+      <c r="C101">
+        <v>4.3237090964203563e-14</v>
+      </c>
+      <c r="D101">
+        <v>0.00022442446380858079</v>
+      </c>
+      <c r="E101">
+        <v>2.1508861083690348e-05</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>0.9996234599267293</v>
+      </c>
+      <c r="C102">
+        <v>5.8150436423605701e-13</v>
+      </c>
+      <c r="D102">
+        <v>0.00029149426686502953</v>
+      </c>
+      <c r="E102">
+        <v>8.504580582424305e-05</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>0.9998344707508473</v>
+      </c>
+      <c r="C103">
+        <v>6.8345004805159084e-14</v>
+      </c>
+      <c r="D103">
+        <v>8.0515006965130333e-06</v>
+      </c>
+      <c r="E103">
+        <v>0.00015747774838772923</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>0.99907784676057754</v>
+      </c>
+      <c r="C104">
+        <v>1.0327274163592632e-12</v>
+      </c>
+      <c r="D104">
+        <v>0.00074168568922623041</v>
+      </c>
+      <c r="E104">
+        <v>0.00018046754916344943</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>0.99995289229577677</v>
+      </c>
+      <c r="C105">
+        <v>2.2204297035127233e-14</v>
+      </c>
+      <c r="D105">
+        <v>1.7408316527506975e-06</v>
+      </c>
+      <c r="E105">
+        <v>4.5366872548151528e-05</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>0.99901388447812067</v>
+      </c>
+      <c r="C106">
+        <v>2.3631509288018568e-12</v>
+      </c>
+      <c r="D106">
+        <v>1.5395247363692352e-05</v>
+      </c>
+      <c r="E106">
+        <v>0.00097072027215244999</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>0.99864081426761264</v>
+      </c>
+      <c r="C107">
+        <v>6.7547047632429909e-14</v>
+      </c>
+      <c r="D107">
+        <v>2.5137259377626683e-05</v>
+      </c>
+      <c r="E107">
+        <v>0.0013340484729421809</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>0.9999654904801033</v>
+      </c>
+      <c r="C108">
+        <v>3.4679252886132002e-13</v>
+      </c>
+      <c r="D108">
+        <v>8.37817649150689e-06</v>
+      </c>
+      <c r="E108">
+        <v>2.6131343058361349e-05</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>0.99812455735662897</v>
+      </c>
+      <c r="C109">
+        <v>1.3765633430479506e-13</v>
+      </c>
+      <c r="D109">
+        <v>1.8933375846659679e-05</v>
+      </c>
+      <c r="E109">
+        <v>0.0018565092673867888</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>0.99989784490230216</v>
+      </c>
+      <c r="C110">
+        <v>1.4400425963787956e-13</v>
+      </c>
+      <c r="D110">
+        <v>7.7113194461429725e-05</v>
+      </c>
+      <c r="E110">
+        <v>2.5041903092366371e-05</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>0.99941884251875868</v>
+      </c>
+      <c r="C111">
+        <v>8.0466882457770508e-14</v>
+      </c>
+      <c r="D111">
+        <v>0.00054789884644698282</v>
+      </c>
+      <c r="E111">
+        <v>3.3258634713909353e-05</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>0.99989703991397771</v>
+      </c>
+      <c r="C112">
+        <v>6.2759166377020965e-13</v>
+      </c>
+      <c r="D112">
+        <v>4.0300446057968899e-05</v>
+      </c>
+      <c r="E112">
+        <v>6.2659639336749975e-05</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>0.99801064780410864</v>
+      </c>
+      <c r="C113">
+        <v>3.8219480418766344e-12</v>
+      </c>
+      <c r="D113">
+        <v>0.0001645216705369936</v>
+      </c>
+      <c r="E113">
+        <v>0.0018248305215323745</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>0.99941884251875868</v>
+      </c>
+      <c r="C114">
+        <v>8.0466882457770508e-14</v>
+      </c>
+      <c r="D114">
+        <v>0.00054789884644698282</v>
+      </c>
+      <c r="E114">
+        <v>3.3258634713909353e-05</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>0.99994589163785774</v>
+      </c>
+      <c r="C115">
+        <v>2.5491856193801857e-14</v>
+      </c>
+      <c r="D115">
+        <v>2.2786790271875423e-07</v>
+      </c>
+      <c r="E115">
+        <v>5.3880494214073683e-05</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>0.99994190323495158</v>
+      </c>
+      <c r="C116">
+        <v>2.2204169892593883e-14</v>
+      </c>
+      <c r="D116">
+        <v>8.0873273029952315e-07</v>
+      </c>
+      <c r="E116">
+        <v>5.7288032295997288e-05</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>0.99979190134419504</v>
+      </c>
+      <c r="C117">
+        <v>2.0909888530074572e-13</v>
+      </c>
+      <c r="D117">
+        <v>7.668716163527368e-05</v>
+      </c>
+      <c r="E117">
+        <v>0.0001314114939607037</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>0.9961406036069258</v>
+      </c>
+      <c r="C118">
+        <v>2.219890453059581e-14</v>
+      </c>
+      <c r="D118">
+        <v>0.00027918301756506465</v>
+      </c>
+      <c r="E118">
+        <v>0.0035802133754869879</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>0.99970548922187608</v>
+      </c>
+      <c r="C119">
+        <v>2.2202992063800565e-14</v>
+      </c>
+      <c r="D119">
+        <v>2.479415259101258e-06</v>
+      </c>
+      <c r="E119">
+        <v>0.00029203136284266704</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>0.99985164857981179</v>
+      </c>
+      <c r="C120">
+        <v>2.220375446516044e-14</v>
+      </c>
+      <c r="D120">
+        <v>1.2005621866469795e-06</v>
+      </c>
+      <c r="E120">
+        <v>0.00014715085797946438</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>0.99985164857981179</v>
+      </c>
+      <c r="C121">
+        <v>2.220375446516044e-14</v>
+      </c>
+      <c r="D121">
+        <v>1.2005621866469795e-06</v>
+      </c>
+      <c r="E121">
+        <v>0.00014715085797946438</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>0.99990653300426535</v>
+      </c>
+      <c r="C122">
+        <v>2.2204078448656209e-14</v>
+      </c>
+      <c r="D122">
+        <v>9.2123513496072789e-07</v>
+      </c>
+      <c r="E122">
+        <v>9.2545760577531459e-05</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>0.9998862648745368</v>
+      </c>
+      <c r="C123">
+        <v>2.2203983691278643e-14</v>
+      </c>
+      <c r="D123">
+        <v>9.2050804572577071e-06</v>
+      </c>
+      <c r="E123">
+        <v>0.00010453004498372766</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>0.99992511848591159</v>
+      </c>
+      <c r="C124">
+        <v>2.2204078758447121e-14</v>
+      </c>
+      <c r="D124">
+        <v>1.1446372819154379e-06</v>
+      </c>
+      <c r="E124">
+        <v>7.373687678442947e-05</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>0.99997079964162594</v>
+      </c>
+      <c r="C125">
+        <v>2.7259360629140699e-14</v>
+      </c>
+      <c r="D125">
+        <v>5.5781517339254722e-07</v>
+      </c>
+      <c r="E125">
+        <v>2.8642543173207247e-05</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>0.99951965351653582</v>
+      </c>
+      <c r="C126">
+        <v>2.3015607284838217e-13</v>
+      </c>
+      <c r="D126">
+        <v>2.0878548414698638e-05</v>
+      </c>
+      <c r="E126">
+        <v>0.00045946793481939835</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>0.98408871544358067</v>
+      </c>
+      <c r="C127">
+        <v>1.4127405159332284e-10</v>
+      </c>
+      <c r="D127">
+        <v>0.014970170721621268</v>
+      </c>
+      <c r="E127">
+        <v>0.00094111369352410808</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>0.99996240062309394</v>
+      </c>
+      <c r="C128">
+        <v>2.2204302191271987e-14</v>
+      </c>
+      <c r="D128">
+        <v>2.1692405399134166e-05</v>
+      </c>
+      <c r="E128">
+        <v>1.5906971484731161e-05</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>0.99953568800831627</v>
+      </c>
+      <c r="C129">
+        <v>3.1664337318160491e-13</v>
+      </c>
+      <c r="D129">
+        <v>1.3222975359697729e-05</v>
+      </c>
+      <c r="E129">
+        <v>0.00045108901600743502</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>0.11827629661547909</v>
+      </c>
+      <c r="C130">
+        <v>2.22000484322412e-14</v>
+      </c>
+      <c r="D130">
+        <v>1.6258091484090115e-11</v>
+      </c>
+      <c r="E130">
+        <v>0.88172370336824057</v>
+      </c>
+      <c r="F130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>0.0021158199348651425</v>
+      </c>
+      <c r="C131">
+        <v>7.0126525609739248e-12</v>
+      </c>
+      <c r="D131">
+        <v>8.1443700898267388e-10</v>
+      </c>
+      <c r="E131">
+        <v>0.99788417924368511</v>
+      </c>
+      <c r="F131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>0.99997111978469555</v>
+      </c>
+      <c r="C132">
+        <v>2.2204343545067179e-14</v>
+      </c>
+      <c r="D132">
+        <v>6.9856030450489107e-06</v>
+      </c>
+      <c r="E132">
+        <v>2.1894612237153753e-05</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>0.99996042373856853</v>
+      </c>
+      <c r="C133">
+        <v>2.2204326046964291e-14</v>
+      </c>
+      <c r="D133">
+        <v>1.6400906048103494e-07</v>
+      </c>
+      <c r="E133">
+        <v>3.9412252348747599e-05</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>0.9999783619404119</v>
+      </c>
+      <c r="C134">
+        <v>2.220438931688773e-14</v>
+      </c>
+      <c r="D134">
+        <v>3.2148455414908155e-07</v>
+      </c>
+      <c r="E134">
+        <v>2.131657501169265e-05</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>0.99995582938678629</v>
+      </c>
+      <c r="C135">
+        <v>2.2204309497602115e-14</v>
+      </c>
+      <c r="D135">
+        <v>5.8519743149104571e-08</v>
+      </c>
+      <c r="E135">
+        <v>4.4112093448398549e-05</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>0.99995141990117531</v>
+      </c>
+      <c r="C136">
+        <v>2.2204229045768127e-14</v>
+      </c>
+      <c r="D136">
+        <v>5.0591152479160171e-07</v>
+      </c>
+      <c r="E136">
+        <v>4.8074187277531069e-05</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
         <v>0.99992285818048565</v>
       </c>
-      <c r="C30">
+      <c r="C137">
         <v>2.2204188786477141e-14</v>
       </c>
-      <c r="D30">
+      <c r="D137">
         <v>1.4188809750409878e-07</v>
       </c>
-      <c r="E30">
+      <c r="E137">
         <v>7.6999931394675198e-05</v>
       </c>
-      <c r="F30">
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>0.99997797456057469</v>
+      </c>
+      <c r="C138">
+        <v>4.3429765783860974e-14</v>
+      </c>
+      <c r="D138">
+        <v>1.1355250602596809e-06</v>
+      </c>
+      <c r="E138">
+        <v>2.0889914321590786e-05</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>0.99995141990117531</v>
+      </c>
+      <c r="C139">
+        <v>2.2204229045768127e-14</v>
+      </c>
+      <c r="D139">
+        <v>5.0591152479160171e-07</v>
+      </c>
+      <c r="E139">
+        <v>4.8074187277531069e-05</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>0.99983878318286956</v>
+      </c>
+      <c r="C140">
+        <v>2.2203759223574986e-14</v>
+      </c>
+      <c r="D140">
+        <v>1.3963490583940503e-06</v>
+      </c>
+      <c r="E140">
+        <v>0.00015982046804983042</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>0.99983878318286956</v>
+      </c>
+      <c r="C141">
+        <v>2.2203759223574986e-14</v>
+      </c>
+      <c r="D141">
+        <v>1.3963490583940503e-06</v>
+      </c>
+      <c r="E141">
+        <v>0.00015982046804983042</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>0.99990444667163847</v>
+      </c>
+      <c r="C142">
+        <v>5.3456190826197819e-13</v>
+      </c>
+      <c r="D142">
+        <v>2.7827415644489826e-06</v>
+      </c>
+      <c r="E142">
+        <v>9.277058626250059e-05</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>0.99988105220351997</v>
+      </c>
+      <c r="C143">
+        <v>2.220406738456248e-14</v>
+      </c>
+      <c r="D143">
+        <v>7.4006330242346151e-07</v>
+      </c>
+      <c r="E143">
+        <v>0.00011820773315536396</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>0.99983878318286956</v>
+      </c>
+      <c r="C144">
+        <v>2.2203759223574986e-14</v>
+      </c>
+      <c r="D144">
+        <v>1.3963490583940503e-06</v>
+      </c>
+      <c r="E144">
+        <v>0.00015982046804983042</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>0.99987481172611592</v>
+      </c>
+      <c r="C145">
+        <v>2.2203947020495088e-14</v>
+      </c>
+      <c r="D145">
+        <v>1.174893111734723e-06</v>
+      </c>
+      <c r="E145">
+        <v>0.00012401338075006184</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>0.99998991339145382</v>
+      </c>
+      <c r="C146">
+        <v>6.8702074146035438e-14</v>
+      </c>
+      <c r="D146">
+        <v>3.0863195692865874e-06</v>
+      </c>
+      <c r="E146">
+        <v>7.0002889080598799e-06</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>0.99983878318286956</v>
+      </c>
+      <c r="C147">
+        <v>2.2203759223574986e-14</v>
+      </c>
+      <c r="D147">
+        <v>1.3963490583940503e-06</v>
+      </c>
+      <c r="E147">
+        <v>0.00015982046804983042</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>0.9999811815044074</v>
+      </c>
+      <c r="C148">
+        <v>2.2204398978905941e-14</v>
+      </c>
+      <c r="D148">
+        <v>4.0054037743074164e-06</v>
+      </c>
+      <c r="E148">
+        <v>1.4813091796083244e-05</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>0.99972840506849159</v>
+      </c>
+      <c r="C149">
+        <v>1.1142336509705727e-13</v>
+      </c>
+      <c r="D149">
+        <v>3.6574170407860051e-07</v>
+      </c>
+      <c r="E149">
+        <v>0.00027122918969291578</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>0.99983878318286956</v>
+      </c>
+      <c r="C150">
+        <v>2.2203759223574986e-14</v>
+      </c>
+      <c r="D150">
+        <v>1.3963490583940503e-06</v>
+      </c>
+      <c r="E150">
+        <v>0.00015982046804983042</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>0.99988814272684379</v>
+      </c>
+      <c r="C151">
+        <v>2.2203952316341835e-14</v>
+      </c>
+      <c r="D151">
+        <v>5.3529257972423885e-07</v>
+      </c>
+      <c r="E151">
+        <v>0.00011132198055429669</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>0.99997018464475207</v>
+      </c>
+      <c r="C152">
+        <v>2.2204369355422901e-14</v>
+      </c>
+      <c r="D152">
+        <v>9.8296190279183755e-06</v>
+      </c>
+      <c r="E152">
+        <v>1.9985736197724896e-05</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>0.99988814272684379</v>
+      </c>
+      <c r="C153">
+        <v>2.2203952316341835e-14</v>
+      </c>
+      <c r="D153">
+        <v>5.3529257972423885e-07</v>
+      </c>
+      <c r="E153">
+        <v>0.00011132198055429669</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>0.99983878318286956</v>
+      </c>
+      <c r="C154">
+        <v>2.2203759223574986e-14</v>
+      </c>
+      <c r="D154">
+        <v>1.3963490583940503e-06</v>
+      </c>
+      <c r="E154">
+        <v>0.00015982046804983042</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>0.99983878318286956</v>
+      </c>
+      <c r="C155">
+        <v>2.2203759223574986e-14</v>
+      </c>
+      <c r="D155">
+        <v>1.3963490583940503e-06</v>
+      </c>
+      <c r="E155">
+        <v>0.00015982046804983042</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>0.99987481172611592</v>
+      </c>
+      <c r="C156">
+        <v>2.2203947020495088e-14</v>
+      </c>
+      <c r="D156">
+        <v>1.174893111734723e-06</v>
+      </c>
+      <c r="E156">
+        <v>0.00012401338075006184</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>0.99978167037643761</v>
+      </c>
+      <c r="C157">
+        <v>2.9934272444720328e-14</v>
+      </c>
+      <c r="D157">
+        <v>2.2297931890631529e-07</v>
+      </c>
+      <c r="E157">
+        <v>0.00021810664421351999</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>0.99988814272684379</v>
+      </c>
+      <c r="C158">
+        <v>2.2203952316341835e-14</v>
+      </c>
+      <c r="D158">
+        <v>5.3529257972423885e-07</v>
+      </c>
+      <c r="E158">
+        <v>0.00011132198055429669</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>0.99997995371579618</v>
+      </c>
+      <c r="C159">
+        <v>2.2204385680130489e-14</v>
+      </c>
+      <c r="D159">
+        <v>4.3935369258957413e-07</v>
+      </c>
+      <c r="E159">
+        <v>1.9606930489048427e-05</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>0.99972840506849159</v>
+      </c>
+      <c r="C160">
+        <v>1.1142336509705727e-13</v>
+      </c>
+      <c r="D160">
+        <v>3.6574170407860051e-07</v>
+      </c>
+      <c r="E160">
+        <v>0.00027122918969291578</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>0.99983878318286956</v>
+      </c>
+      <c r="C161">
+        <v>2.2203759223574986e-14</v>
+      </c>
+      <c r="D161">
+        <v>1.3963490583940503e-06</v>
+      </c>
+      <c r="E161">
+        <v>0.00015982046804983042</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>0.9995152852248349</v>
+      </c>
+      <c r="C162">
+        <v>8.8611339033184039e-13</v>
+      </c>
+      <c r="D162">
+        <v>2.0589386848545068e-06</v>
+      </c>
+      <c r="E162">
+        <v>0.00048265583559425288</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>0.99988814272684379</v>
+      </c>
+      <c r="C163">
+        <v>2.2203952316341835e-14</v>
+      </c>
+      <c r="D163">
+        <v>5.3529257972423885e-07</v>
+      </c>
+      <c r="E163">
+        <v>0.00011132198055429669</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>0.99983878318286956</v>
+      </c>
+      <c r="C164">
+        <v>2.2203759223574986e-14</v>
+      </c>
+      <c r="D164">
+        <v>1.3963490583940503e-06</v>
+      </c>
+      <c r="E164">
+        <v>0.00015982046804983042</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>0.99988814272684379</v>
+      </c>
+      <c r="C165">
+        <v>2.2203952316341835e-14</v>
+      </c>
+      <c r="D165">
+        <v>5.3529257972423885e-07</v>
+      </c>
+      <c r="E165">
+        <v>0.00011132198055429669</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>0.99983878318286956</v>
+      </c>
+      <c r="C166">
+        <v>2.2203759223574986e-14</v>
+      </c>
+      <c r="D166">
+        <v>1.3963490583940503e-06</v>
+      </c>
+      <c r="E166">
+        <v>0.00015982046804983042</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>0.99983878318286956</v>
+      </c>
+      <c r="C167">
+        <v>2.2203759223574986e-14</v>
+      </c>
+      <c r="D167">
+        <v>1.3963490583940503e-06</v>
+      </c>
+      <c r="E167">
+        <v>0.00015982046804983042</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>0.99988108718901003</v>
+      </c>
+      <c r="C168">
+        <v>2.2204170295960562e-14</v>
+      </c>
+      <c r="D168">
+        <v>8.8033285181108467e-07</v>
+      </c>
+      <c r="E168">
+        <v>0.00011803247811586565</v>
+      </c>
+      <c r="F168">
         <v>1</v>
       </c>
     </row>
